--- a/A-学习计划/学习计划.xlsx
+++ b/A-学习计划/学习计划.xlsx
@@ -23,9 +23,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>spring源码</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>spring源码视频</t>
+  </si>
+  <si>
+    <t>3个视频</t>
+  </si>
+  <si>
+    <t>3月结束之前结束SpringSecurity</t>
   </si>
   <si>
     <t>springBoot源码</t>
@@ -102,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,6 +122,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -123,60 +165,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,40 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,21 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -259,6 +243,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,67 +275,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,115 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,32 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +504,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,11 +534,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,15 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1077,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1082,9 +1088,17 @@
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:2">
@@ -1125,17 +1139,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1174,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1199,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1224,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1251,32 +1265,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1304,22 +1318,22 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1327,7 +1341,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1338,7 +1352,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1388,12 +1402,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1418,17 +1432,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
